--- a/Sample/buff.xlsx
+++ b/Sample/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="13500"/>
+    <workbookView windowWidth="23595" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>str</t>
   </si>
   <si>
     <t>##</t>
@@ -53,12 +53,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,9 +68,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,23 +126,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,14 +150,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +166,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,17 +188,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,60 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +220,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,151 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +411,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,235 +507,161 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1018,7 +1011,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/Sample/buff.xlsx
+++ b/Sample/buff.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="13500"/>
+    <workbookView windowWidth="23700" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>##var</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>##var##list##key_id|type</t>
   </si>
   <si>
     <t>id</t>
@@ -46,6 +44,12 @@
   </si>
   <si>
     <t>描述</t>
+  </si>
+  <si>
+    <t>测温1</t>
+  </si>
+  <si>
+    <t>测温2</t>
   </si>
 </sst>
 </file>
@@ -53,9 +57,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -67,6 +71,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -74,6 +79,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -81,6 +94,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,18 +153,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,99 +193,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,19 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +468,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,9 +507,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,133 +533,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,13 +1012,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1066,44 +1073,23 @@
       <c r="C4" s="1">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Sample/buff.xlsx
+++ b/Sample/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23700" windowHeight="11475"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>##</t>
   </si>
   <si>
-    <t>buuf类型</t>
+    <t>buff类型</t>
   </si>
   <si>
     <t>描述</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,11 +71,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,8 +153,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,115 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,21 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,8 +436,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,8 +475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +486,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,27 +515,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,133 +533,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/Sample/buff.xlsx
+++ b/Sample/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24345" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
-  <si>
-    <t>##var##list##key_id|type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t>##var##list##index_id|type</t>
   </si>
   <si>
     <t>id</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,12 +72,119 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -107,113 +214,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,13 +224,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,37 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,127 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,16 +418,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -438,6 +438,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,17 +472,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,15 +492,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -501,16 +501,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -521,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,16 +533,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,112 +554,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/Sample/buff.xlsx
+++ b/Sample/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="13230"/>
+    <workbookView windowWidth="24345" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>##var##list##index_id|type</t>
+    <t>##var##mode_list##index_id|type</t>
   </si>
   <si>
     <t>id</t>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -79,36 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,7 +94,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +102,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,37 +132,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -214,6 +154,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,49 +224,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,133 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,21 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -458,16 +443,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +462,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,151 +480,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
